--- a/Output/Classifier Fitting/XGBoost/Individual_Features_PCA Training Statistics.xlsx
+++ b/Output/Classifier Fitting/XGBoost/Individual_Features_PCA Training Statistics.xlsx
@@ -460,16 +460,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>73.48660935560862</v>
+        <v>42.33905968268712</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01224164740223365</v>
+        <v>0.007052983455386827</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8853918956425202</v>
+        <v>0.888055925617541</v>
       </c>
     </row>
   </sheetData>

--- a/Output/Classifier Fitting/XGBoost/Individual_Features_PCA Training Statistics.xlsx
+++ b/Output/Classifier Fitting/XGBoost/Individual_Features_PCA Training Statistics.xlsx
@@ -460,16 +460,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>42.33905968268712</v>
+        <v>73.44739904403687</v>
       </c>
       <c r="C2" t="n">
-        <v>0.007052983455386827</v>
+        <v>0.01223511561619805</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.888055925617541</v>
+        <v>0.890555925617541</v>
       </c>
     </row>
   </sheetData>
